--- a/etual.xlsx
+++ b/etual.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Мастера" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Таблицы" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Производство" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Мастера" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Таблицы" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Производство" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -1651,7 +1651,7 @@
       <c r="I2" s="21" t="n"/>
       <c r="J2" s="29" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K2" s="30" t="n"/>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="M8" s="19" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="N8" s="19" t="n"/>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="M9" s="19" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="N9" s="19" t="n"/>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="M10" s="19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="N10" s="19" t="n"/>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="M11" s="19" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N11" s="19" t="n"/>

--- a/etual.xlsx
+++ b/etual.xlsx
@@ -1651,7 +1651,7 @@
       <c r="I2" s="21" t="n"/>
       <c r="J2" s="29" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K2" s="30" t="n"/>

--- a/etual.xlsx
+++ b/etual.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Мастера" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Таблицы" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Производство" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Мастера" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Таблицы" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Производство" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -1651,7 +1651,7 @@
       <c r="I2" s="21" t="n"/>
       <c r="J2" s="29" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="K2" s="30" t="n"/>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="M10" s="19" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="N10" s="19" t="n"/>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="M11" s="19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="N11" s="19" t="n"/>

--- a/etual.xlsx
+++ b/etual.xlsx
@@ -1505,7 +1505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:P999"/>
+  <dimension ref="A1:P228"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
@@ -9972,777 +9972,6 @@
       <c r="O228" s="20" t="n"/>
       <c r="P228" s="20" t="n"/>
     </row>
-    <row r="229"/>
-    <row r="230"/>
-    <row r="231"/>
-    <row r="232"/>
-    <row r="233"/>
-    <row r="234"/>
-    <row r="235"/>
-    <row r="236"/>
-    <row r="237"/>
-    <row r="238"/>
-    <row r="239"/>
-    <row r="240"/>
-    <row r="241"/>
-    <row r="242"/>
-    <row r="243"/>
-    <row r="244"/>
-    <row r="245"/>
-    <row r="246"/>
-    <row r="247"/>
-    <row r="248"/>
-    <row r="249"/>
-    <row r="250"/>
-    <row r="251"/>
-    <row r="252"/>
-    <row r="253"/>
-    <row r="254"/>
-    <row r="255"/>
-    <row r="256"/>
-    <row r="257"/>
-    <row r="258"/>
-    <row r="259"/>
-    <row r="260"/>
-    <row r="261"/>
-    <row r="262"/>
-    <row r="263"/>
-    <row r="264"/>
-    <row r="265"/>
-    <row r="266"/>
-    <row r="267"/>
-    <row r="268"/>
-    <row r="269"/>
-    <row r="270"/>
-    <row r="271"/>
-    <row r="272"/>
-    <row r="273"/>
-    <row r="274"/>
-    <row r="275"/>
-    <row r="276"/>
-    <row r="277"/>
-    <row r="278"/>
-    <row r="279"/>
-    <row r="280"/>
-    <row r="281"/>
-    <row r="282"/>
-    <row r="283"/>
-    <row r="284"/>
-    <row r="285"/>
-    <row r="286"/>
-    <row r="287"/>
-    <row r="288"/>
-    <row r="289"/>
-    <row r="290"/>
-    <row r="291"/>
-    <row r="292"/>
-    <row r="293"/>
-    <row r="294"/>
-    <row r="295"/>
-    <row r="296"/>
-    <row r="297"/>
-    <row r="298"/>
-    <row r="299"/>
-    <row r="300"/>
-    <row r="301"/>
-    <row r="302"/>
-    <row r="303"/>
-    <row r="304"/>
-    <row r="305"/>
-    <row r="306"/>
-    <row r="307"/>
-    <row r="308"/>
-    <row r="309"/>
-    <row r="310"/>
-    <row r="311"/>
-    <row r="312"/>
-    <row r="313"/>
-    <row r="314"/>
-    <row r="315"/>
-    <row r="316"/>
-    <row r="317"/>
-    <row r="318"/>
-    <row r="319"/>
-    <row r="320"/>
-    <row r="321"/>
-    <row r="322"/>
-    <row r="323"/>
-    <row r="324"/>
-    <row r="325"/>
-    <row r="326"/>
-    <row r="327"/>
-    <row r="328"/>
-    <row r="329"/>
-    <row r="330"/>
-    <row r="331"/>
-    <row r="332"/>
-    <row r="333"/>
-    <row r="334"/>
-    <row r="335"/>
-    <row r="336"/>
-    <row r="337"/>
-    <row r="338"/>
-    <row r="339"/>
-    <row r="340"/>
-    <row r="341"/>
-    <row r="342"/>
-    <row r="343"/>
-    <row r="344"/>
-    <row r="345"/>
-    <row r="346"/>
-    <row r="347"/>
-    <row r="348"/>
-    <row r="349"/>
-    <row r="350"/>
-    <row r="351"/>
-    <row r="352"/>
-    <row r="353"/>
-    <row r="354"/>
-    <row r="355"/>
-    <row r="356"/>
-    <row r="357"/>
-    <row r="358"/>
-    <row r="359"/>
-    <row r="360"/>
-    <row r="361"/>
-    <row r="362"/>
-    <row r="363"/>
-    <row r="364"/>
-    <row r="365"/>
-    <row r="366"/>
-    <row r="367"/>
-    <row r="368"/>
-    <row r="369"/>
-    <row r="370"/>
-    <row r="371"/>
-    <row r="372"/>
-    <row r="373"/>
-    <row r="374"/>
-    <row r="375"/>
-    <row r="376"/>
-    <row r="377"/>
-    <row r="378"/>
-    <row r="379"/>
-    <row r="380"/>
-    <row r="381"/>
-    <row r="382"/>
-    <row r="383"/>
-    <row r="384"/>
-    <row r="385"/>
-    <row r="386"/>
-    <row r="387"/>
-    <row r="388"/>
-    <row r="389"/>
-    <row r="390"/>
-    <row r="391"/>
-    <row r="392"/>
-    <row r="393"/>
-    <row r="394"/>
-    <row r="395"/>
-    <row r="396"/>
-    <row r="397"/>
-    <row r="398"/>
-    <row r="399"/>
-    <row r="400"/>
-    <row r="401"/>
-    <row r="402"/>
-    <row r="403"/>
-    <row r="404"/>
-    <row r="405"/>
-    <row r="406"/>
-    <row r="407"/>
-    <row r="408"/>
-    <row r="409"/>
-    <row r="410"/>
-    <row r="411"/>
-    <row r="412"/>
-    <row r="413"/>
-    <row r="414"/>
-    <row r="415"/>
-    <row r="416"/>
-    <row r="417"/>
-    <row r="418"/>
-    <row r="419"/>
-    <row r="420"/>
-    <row r="421"/>
-    <row r="422"/>
-    <row r="423"/>
-    <row r="424"/>
-    <row r="425"/>
-    <row r="426"/>
-    <row r="427"/>
-    <row r="428"/>
-    <row r="429"/>
-    <row r="430"/>
-    <row r="431"/>
-    <row r="432"/>
-    <row r="433"/>
-    <row r="434"/>
-    <row r="435"/>
-    <row r="436"/>
-    <row r="437"/>
-    <row r="438"/>
-    <row r="439"/>
-    <row r="440"/>
-    <row r="441"/>
-    <row r="442"/>
-    <row r="443"/>
-    <row r="444"/>
-    <row r="445"/>
-    <row r="446"/>
-    <row r="447"/>
-    <row r="448"/>
-    <row r="449"/>
-    <row r="450"/>
-    <row r="451"/>
-    <row r="452"/>
-    <row r="453"/>
-    <row r="454"/>
-    <row r="455"/>
-    <row r="456"/>
-    <row r="457"/>
-    <row r="458"/>
-    <row r="459"/>
-    <row r="460"/>
-    <row r="461"/>
-    <row r="462"/>
-    <row r="463"/>
-    <row r="464"/>
-    <row r="465"/>
-    <row r="466"/>
-    <row r="467"/>
-    <row r="468"/>
-    <row r="469"/>
-    <row r="470"/>
-    <row r="471"/>
-    <row r="472"/>
-    <row r="473"/>
-    <row r="474"/>
-    <row r="475"/>
-    <row r="476"/>
-    <row r="477"/>
-    <row r="478"/>
-    <row r="479"/>
-    <row r="480"/>
-    <row r="481"/>
-    <row r="482"/>
-    <row r="483"/>
-    <row r="484"/>
-    <row r="485"/>
-    <row r="486"/>
-    <row r="487"/>
-    <row r="488"/>
-    <row r="489"/>
-    <row r="490"/>
-    <row r="491"/>
-    <row r="492"/>
-    <row r="493"/>
-    <row r="494"/>
-    <row r="495"/>
-    <row r="496"/>
-    <row r="497"/>
-    <row r="498"/>
-    <row r="499"/>
-    <row r="500"/>
-    <row r="501"/>
-    <row r="502"/>
-    <row r="503"/>
-    <row r="504"/>
-    <row r="505"/>
-    <row r="506"/>
-    <row r="507"/>
-    <row r="508"/>
-    <row r="509"/>
-    <row r="510"/>
-    <row r="511"/>
-    <row r="512"/>
-    <row r="513"/>
-    <row r="514"/>
-    <row r="515"/>
-    <row r="516"/>
-    <row r="517"/>
-    <row r="518"/>
-    <row r="519"/>
-    <row r="520"/>
-    <row r="521"/>
-    <row r="522"/>
-    <row r="523"/>
-    <row r="524"/>
-    <row r="525"/>
-    <row r="526"/>
-    <row r="527"/>
-    <row r="528"/>
-    <row r="529"/>
-    <row r="530"/>
-    <row r="531"/>
-    <row r="532"/>
-    <row r="533"/>
-    <row r="534"/>
-    <row r="535"/>
-    <row r="536"/>
-    <row r="537"/>
-    <row r="538"/>
-    <row r="539"/>
-    <row r="540"/>
-    <row r="541"/>
-    <row r="542"/>
-    <row r="543"/>
-    <row r="544"/>
-    <row r="545"/>
-    <row r="546"/>
-    <row r="547"/>
-    <row r="548"/>
-    <row r="549"/>
-    <row r="550"/>
-    <row r="551"/>
-    <row r="552"/>
-    <row r="553"/>
-    <row r="554"/>
-    <row r="555"/>
-    <row r="556"/>
-    <row r="557"/>
-    <row r="558"/>
-    <row r="559"/>
-    <row r="560"/>
-    <row r="561"/>
-    <row r="562"/>
-    <row r="563"/>
-    <row r="564"/>
-    <row r="565"/>
-    <row r="566"/>
-    <row r="567"/>
-    <row r="568"/>
-    <row r="569"/>
-    <row r="570"/>
-    <row r="571"/>
-    <row r="572"/>
-    <row r="573"/>
-    <row r="574"/>
-    <row r="575"/>
-    <row r="576"/>
-    <row r="577"/>
-    <row r="578"/>
-    <row r="579"/>
-    <row r="580"/>
-    <row r="581"/>
-    <row r="582"/>
-    <row r="583"/>
-    <row r="584"/>
-    <row r="585"/>
-    <row r="586"/>
-    <row r="587"/>
-    <row r="588"/>
-    <row r="589"/>
-    <row r="590"/>
-    <row r="591"/>
-    <row r="592"/>
-    <row r="593"/>
-    <row r="594"/>
-    <row r="595"/>
-    <row r="596"/>
-    <row r="597"/>
-    <row r="598"/>
-    <row r="599"/>
-    <row r="600"/>
-    <row r="601"/>
-    <row r="602"/>
-    <row r="603"/>
-    <row r="604"/>
-    <row r="605"/>
-    <row r="606"/>
-    <row r="607"/>
-    <row r="608"/>
-    <row r="609"/>
-    <row r="610"/>
-    <row r="611"/>
-    <row r="612"/>
-    <row r="613"/>
-    <row r="614"/>
-    <row r="615"/>
-    <row r="616"/>
-    <row r="617"/>
-    <row r="618"/>
-    <row r="619"/>
-    <row r="620"/>
-    <row r="621"/>
-    <row r="622"/>
-    <row r="623"/>
-    <row r="624"/>
-    <row r="625"/>
-    <row r="626"/>
-    <row r="627"/>
-    <row r="628"/>
-    <row r="629"/>
-    <row r="630"/>
-    <row r="631"/>
-    <row r="632"/>
-    <row r="633"/>
-    <row r="634"/>
-    <row r="635"/>
-    <row r="636"/>
-    <row r="637"/>
-    <row r="638"/>
-    <row r="639"/>
-    <row r="640"/>
-    <row r="641"/>
-    <row r="642"/>
-    <row r="643"/>
-    <row r="644"/>
-    <row r="645"/>
-    <row r="646"/>
-    <row r="647"/>
-    <row r="648"/>
-    <row r="649"/>
-    <row r="650"/>
-    <row r="651"/>
-    <row r="652"/>
-    <row r="653"/>
-    <row r="654"/>
-    <row r="655"/>
-    <row r="656"/>
-    <row r="657"/>
-    <row r="658"/>
-    <row r="659"/>
-    <row r="660"/>
-    <row r="661"/>
-    <row r="662"/>
-    <row r="663"/>
-    <row r="664"/>
-    <row r="665"/>
-    <row r="666"/>
-    <row r="667"/>
-    <row r="668"/>
-    <row r="669"/>
-    <row r="670"/>
-    <row r="671"/>
-    <row r="672"/>
-    <row r="673"/>
-    <row r="674"/>
-    <row r="675"/>
-    <row r="676"/>
-    <row r="677"/>
-    <row r="678"/>
-    <row r="679"/>
-    <row r="680"/>
-    <row r="681"/>
-    <row r="682"/>
-    <row r="683"/>
-    <row r="684"/>
-    <row r="685"/>
-    <row r="686"/>
-    <row r="687"/>
-    <row r="688"/>
-    <row r="689"/>
-    <row r="690"/>
-    <row r="691"/>
-    <row r="692"/>
-    <row r="693"/>
-    <row r="694"/>
-    <row r="695"/>
-    <row r="696"/>
-    <row r="697"/>
-    <row r="698"/>
-    <row r="699"/>
-    <row r="700"/>
-    <row r="701"/>
-    <row r="702"/>
-    <row r="703"/>
-    <row r="704"/>
-    <row r="705"/>
-    <row r="706"/>
-    <row r="707"/>
-    <row r="708"/>
-    <row r="709"/>
-    <row r="710"/>
-    <row r="711"/>
-    <row r="712"/>
-    <row r="713"/>
-    <row r="714"/>
-    <row r="715"/>
-    <row r="716"/>
-    <row r="717"/>
-    <row r="718"/>
-    <row r="719"/>
-    <row r="720"/>
-    <row r="721"/>
-    <row r="722"/>
-    <row r="723"/>
-    <row r="724"/>
-    <row r="725"/>
-    <row r="726"/>
-    <row r="727"/>
-    <row r="728"/>
-    <row r="729"/>
-    <row r="730"/>
-    <row r="731"/>
-    <row r="732"/>
-    <row r="733"/>
-    <row r="734"/>
-    <row r="735"/>
-    <row r="736"/>
-    <row r="737"/>
-    <row r="738"/>
-    <row r="739"/>
-    <row r="740"/>
-    <row r="741"/>
-    <row r="742"/>
-    <row r="743"/>
-    <row r="744"/>
-    <row r="745"/>
-    <row r="746"/>
-    <row r="747"/>
-    <row r="748"/>
-    <row r="749"/>
-    <row r="750"/>
-    <row r="751"/>
-    <row r="752"/>
-    <row r="753"/>
-    <row r="754"/>
-    <row r="755"/>
-    <row r="756"/>
-    <row r="757"/>
-    <row r="758"/>
-    <row r="759"/>
-    <row r="760"/>
-    <row r="761"/>
-    <row r="762"/>
-    <row r="763"/>
-    <row r="764"/>
-    <row r="765"/>
-    <row r="766"/>
-    <row r="767"/>
-    <row r="768"/>
-    <row r="769"/>
-    <row r="770"/>
-    <row r="771"/>
-    <row r="772"/>
-    <row r="773"/>
-    <row r="774"/>
-    <row r="775"/>
-    <row r="776"/>
-    <row r="777"/>
-    <row r="778"/>
-    <row r="779"/>
-    <row r="780"/>
-    <row r="781"/>
-    <row r="782"/>
-    <row r="783"/>
-    <row r="784"/>
-    <row r="785"/>
-    <row r="786"/>
-    <row r="787"/>
-    <row r="788"/>
-    <row r="789"/>
-    <row r="790"/>
-    <row r="791"/>
-    <row r="792"/>
-    <row r="793"/>
-    <row r="794"/>
-    <row r="795"/>
-    <row r="796"/>
-    <row r="797"/>
-    <row r="798"/>
-    <row r="799"/>
-    <row r="800"/>
-    <row r="801"/>
-    <row r="802"/>
-    <row r="803"/>
-    <row r="804"/>
-    <row r="805"/>
-    <row r="806"/>
-    <row r="807"/>
-    <row r="808"/>
-    <row r="809"/>
-    <row r="810"/>
-    <row r="811"/>
-    <row r="812"/>
-    <row r="813"/>
-    <row r="814"/>
-    <row r="815"/>
-    <row r="816"/>
-    <row r="817"/>
-    <row r="818"/>
-    <row r="819"/>
-    <row r="820"/>
-    <row r="821"/>
-    <row r="822"/>
-    <row r="823"/>
-    <row r="824"/>
-    <row r="825"/>
-    <row r="826"/>
-    <row r="827"/>
-    <row r="828"/>
-    <row r="829"/>
-    <row r="830"/>
-    <row r="831"/>
-    <row r="832"/>
-    <row r="833"/>
-    <row r="834"/>
-    <row r="835"/>
-    <row r="836"/>
-    <row r="837"/>
-    <row r="838"/>
-    <row r="839"/>
-    <row r="840"/>
-    <row r="841"/>
-    <row r="842"/>
-    <row r="843"/>
-    <row r="844"/>
-    <row r="845"/>
-    <row r="846"/>
-    <row r="847"/>
-    <row r="848"/>
-    <row r="849"/>
-    <row r="850"/>
-    <row r="851"/>
-    <row r="852"/>
-    <row r="853"/>
-    <row r="854"/>
-    <row r="855"/>
-    <row r="856"/>
-    <row r="857"/>
-    <row r="858"/>
-    <row r="859"/>
-    <row r="860"/>
-    <row r="861"/>
-    <row r="862"/>
-    <row r="863"/>
-    <row r="864"/>
-    <row r="865"/>
-    <row r="866"/>
-    <row r="867"/>
-    <row r="868"/>
-    <row r="869"/>
-    <row r="870"/>
-    <row r="871"/>
-    <row r="872"/>
-    <row r="873"/>
-    <row r="874"/>
-    <row r="875"/>
-    <row r="876"/>
-    <row r="877"/>
-    <row r="878"/>
-    <row r="879"/>
-    <row r="880"/>
-    <row r="881"/>
-    <row r="882"/>
-    <row r="883"/>
-    <row r="884"/>
-    <row r="885"/>
-    <row r="886"/>
-    <row r="887"/>
-    <row r="888"/>
-    <row r="889"/>
-    <row r="890"/>
-    <row r="891"/>
-    <row r="892"/>
-    <row r="893"/>
-    <row r="894"/>
-    <row r="895"/>
-    <row r="896"/>
-    <row r="897"/>
-    <row r="898"/>
-    <row r="899"/>
-    <row r="900"/>
-    <row r="901"/>
-    <row r="902"/>
-    <row r="903"/>
-    <row r="904"/>
-    <row r="905"/>
-    <row r="906"/>
-    <row r="907"/>
-    <row r="908"/>
-    <row r="909"/>
-    <row r="910"/>
-    <row r="911"/>
-    <row r="912"/>
-    <row r="913"/>
-    <row r="914"/>
-    <row r="915"/>
-    <row r="916"/>
-    <row r="917"/>
-    <row r="918"/>
-    <row r="919"/>
-    <row r="920"/>
-    <row r="921"/>
-    <row r="922"/>
-    <row r="923"/>
-    <row r="924"/>
-    <row r="925"/>
-    <row r="926"/>
-    <row r="927"/>
-    <row r="928"/>
-    <row r="929"/>
-    <row r="930"/>
-    <row r="931"/>
-    <row r="932"/>
-    <row r="933"/>
-    <row r="934"/>
-    <row r="935"/>
-    <row r="936"/>
-    <row r="937"/>
-    <row r="938"/>
-    <row r="939"/>
-    <row r="940"/>
-    <row r="941"/>
-    <row r="942"/>
-    <row r="943"/>
-    <row r="944"/>
-    <row r="945"/>
-    <row r="946"/>
-    <row r="947"/>
-    <row r="948"/>
-    <row r="949"/>
-    <row r="950"/>
-    <row r="951"/>
-    <row r="952"/>
-    <row r="953"/>
-    <row r="954"/>
-    <row r="955"/>
-    <row r="956"/>
-    <row r="957"/>
-    <row r="958"/>
-    <row r="959"/>
-    <row r="960"/>
-    <row r="961"/>
-    <row r="962"/>
-    <row r="963"/>
-    <row r="964"/>
-    <row r="965"/>
-    <row r="966"/>
-    <row r="967"/>
-    <row r="968"/>
-    <row r="969"/>
-    <row r="970"/>
-    <row r="971"/>
-    <row r="972"/>
-    <row r="973"/>
-    <row r="974"/>
-    <row r="975"/>
-    <row r="976"/>
-    <row r="977"/>
-    <row r="978"/>
-    <row r="979"/>
-    <row r="980"/>
-    <row r="981"/>
-    <row r="982"/>
-    <row r="983"/>
-    <row r="984"/>
-    <row r="985"/>
-    <row r="986"/>
-    <row r="987"/>
-    <row r="988"/>
-    <row r="989"/>
-    <row r="990"/>
-    <row r="991"/>
-    <row r="992"/>
-    <row r="993"/>
-    <row r="994"/>
-    <row r="995"/>
-    <row r="996"/>
-    <row r="997"/>
-    <row r="998"/>
-    <row r="999"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/etual.xlsx
+++ b/etual.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ЭтаКнига"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Мастера" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Производство'!$J$1:$J$497</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -60,12 +60,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -99,7 +111,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -125,6 +137,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1357,7 +1373,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L134" sqref="L134"/>
+      <selection pane="bottomLeft" activeCell="G124" sqref="G124:I129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1377,8 +1393,7 @@
     <col width="13.42578125" customWidth="1" style="3" min="13" max="13"/>
     <col width="13.28515625" customWidth="1" style="3" min="14" max="15"/>
     <col width="10.5703125" customWidth="1" style="3" min="16" max="16"/>
-    <col width="9.140625" customWidth="1" style="3" min="17" max="30"/>
-    <col width="9.140625" customWidth="1" style="3" min="31" max="31"/>
+    <col width="9.140625" customWidth="1" style="3" min="17" max="31"/>
   </cols>
   <sheetData>
     <row r="1" ht="45.75" customHeight="1">
@@ -1487,7 +1502,7 @@
       </c>
       <c r="J2" s="6" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1539,7 @@
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -1555,13 +1570,11 @@
       </c>
       <c r="K4" s="6" t="inlineStr">
         <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="L4" s="6" t="inlineStr">
-        <is>
-          <t>350</t>
-        </is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>445</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
@@ -1880,11 +1893,13 @@
       </c>
       <c r="J16" s="6" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K16" s="6" t="inlineStr">
+        <is>
           <t>100</t>
         </is>
-      </c>
-      <c r="K16" s="6" t="n">
-        <v>195</v>
       </c>
     </row>
     <row r="17">
@@ -1917,7 +1932,7 @@
       </c>
       <c r="J17" s="6" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K17" s="6" t="inlineStr">
@@ -1951,8 +1966,10 @@
       <c r="G18" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="J18" s="6" t="n">
-        <v>0</v>
+      <c r="J18" s="6" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
       </c>
       <c r="K18" s="6" t="n">
         <v>114</v>
@@ -2010,7 +2027,7 @@
       </c>
       <c r="J20" s="6" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K20" s="6" t="inlineStr">
@@ -2046,7 +2063,7 @@
       </c>
       <c r="J21" s="6" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2091,7 @@
       </c>
       <c r="J22" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K22" s="6" t="inlineStr">
@@ -2105,8 +2122,10 @@
       <c r="G23" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="J23" s="6" t="n">
-        <v>8</v>
+      <c r="J23" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="K23" s="6" t="n">
         <v>2</v>
@@ -2165,7 +2184,7 @@
       </c>
       <c r="J25" s="6" t="inlineStr">
         <is>
-          <t>196.78</t>
+          <t>149</t>
         </is>
       </c>
       <c r="K25" s="6" t="inlineStr">
@@ -2278,7 +2297,7 @@
       </c>
       <c r="J29" s="6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K29" s="6" t="n">
@@ -2309,7 +2328,7 @@
       </c>
       <c r="J30" s="6" t="inlineStr">
         <is>
-          <t>31.41</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2356,7 @@
       </c>
       <c r="J31" s="6" t="inlineStr">
         <is>
-          <t>188.71</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -2363,8 +2382,10 @@
       <c r="G32" s="3" t="n">
         <v>290</v>
       </c>
-      <c r="J32" s="6" t="n">
-        <v>69.61</v>
+      <c r="J32" s="6" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1">
@@ -2389,8 +2410,10 @@
       <c r="G33" s="3" t="n">
         <v>432.5</v>
       </c>
-      <c r="J33" s="6" t="n">
-        <v>147.44</v>
+      <c r="J33" s="6" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
       </c>
     </row>
     <row r="34" ht="30" customHeight="1">
@@ -2415,8 +2438,10 @@
       <c r="G34" s="3" t="n">
         <v>170</v>
       </c>
-      <c r="J34" s="6" t="n">
-        <v>320</v>
+      <c r="J34" s="6" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
       </c>
     </row>
     <row r="35" ht="30" customHeight="1">
@@ -2443,7 +2468,7 @@
       </c>
       <c r="J35" s="6" t="inlineStr">
         <is>
-          <t>71.95</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -2469,8 +2494,10 @@
       <c r="G36" s="3" t="n">
         <v>279</v>
       </c>
-      <c r="J36" s="6" t="n">
-        <v>226.41</v>
+      <c r="J36" s="6" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -2549,7 +2576,7 @@
       </c>
       <c r="J39" s="6" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>220</t>
         </is>
       </c>
     </row>
@@ -2575,8 +2602,10 @@
       <c r="G40" s="3" t="n">
         <v>29.5</v>
       </c>
-      <c r="J40" s="6" t="n">
-        <v>13</v>
+      <c r="J40" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
     </row>
     <row r="41" ht="30" customHeight="1">
@@ -2603,7 +2632,7 @@
       </c>
       <c r="J41" s="6" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2686,7 @@
       </c>
       <c r="J43" s="6" t="inlineStr">
         <is>
-          <t>41.54</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2714,7 @@
       </c>
       <c r="J44" s="6" t="inlineStr">
         <is>
-          <t>23.77</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -2739,7 +2768,7 @@
       </c>
       <c r="J46" s="6" t="inlineStr">
         <is>
-          <t>58.63</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2822,7 @@
       </c>
       <c r="J48" s="6" t="inlineStr">
         <is>
-          <t>193.65</t>
+          <t>155</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2876,7 @@
       </c>
       <c r="J50" s="6" t="inlineStr">
         <is>
-          <t>211.91</t>
+          <t>155</t>
         </is>
       </c>
     </row>
@@ -2875,7 +2904,7 @@
       </c>
       <c r="J51" s="6" t="inlineStr">
         <is>
-          <t>95.87</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -2903,7 +2932,7 @@
       </c>
       <c r="J52" s="6" t="inlineStr">
         <is>
-          <t>40.31</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2960,7 @@
       </c>
       <c r="J53" s="6" t="inlineStr">
         <is>
-          <t>61.74</t>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -2985,7 +3014,7 @@
       </c>
       <c r="J55" s="6" t="inlineStr">
         <is>
-          <t>58.77</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3042,7 @@
       </c>
       <c r="J56" s="6" t="inlineStr">
         <is>
-          <t>130.24</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -3039,8 +3068,10 @@
       <c r="G57" s="3" t="n">
         <v>85</v>
       </c>
-      <c r="J57" s="6" t="n">
-        <v>53.98</v>
+      <c r="J57" s="6" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
     </row>
     <row r="58" ht="30" customHeight="1">
@@ -3122,7 +3153,7 @@
       </c>
       <c r="J60" s="6" t="inlineStr">
         <is>
-          <t>60.85</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3184,7 @@
       </c>
       <c r="J61" s="6" t="inlineStr">
         <is>
-          <t>58.81</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K61" s="6" t="inlineStr">
@@ -3186,7 +3217,7 @@
       </c>
       <c r="J62" s="6" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>123</t>
         </is>
       </c>
     </row>
@@ -3214,7 +3245,7 @@
       </c>
       <c r="J63" s="6" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>200</t>
         </is>
       </c>
     </row>
@@ -3242,7 +3273,7 @@
       </c>
       <c r="J64" s="6" t="inlineStr">
         <is>
-          <t>41.78</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -3270,7 +3301,7 @@
       </c>
       <c r="J65" s="6" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -3296,8 +3327,10 @@
       <c r="G66" s="3" t="n">
         <v>345</v>
       </c>
-      <c r="J66" s="6" t="n">
-        <v>231.96</v>
+      <c r="J66" s="6" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
     </row>
     <row r="67" ht="30" customHeight="1">
@@ -3324,7 +3357,7 @@
       </c>
       <c r="J67" s="6" t="inlineStr">
         <is>
-          <t>227.7</t>
+          <t>199</t>
         </is>
       </c>
     </row>
@@ -3378,8 +3411,10 @@
       <c r="G69" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="J69" s="6" t="n">
-        <v>433</v>
+      <c r="J69" s="6" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
       </c>
     </row>
     <row r="70" ht="30" customHeight="1">
@@ -3404,8 +3439,10 @@
       <c r="G70" s="3" t="n">
         <v>286</v>
       </c>
-      <c r="J70" s="6" t="n">
-        <v>599</v>
+      <c r="J70" s="6" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
       </c>
     </row>
     <row r="71" ht="33" customHeight="1">
@@ -3430,8 +3467,10 @@
       <c r="G71" s="3" t="n">
         <v>182</v>
       </c>
-      <c r="J71" s="6" t="n">
-        <v>213</v>
+      <c r="J71" s="6" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
       </c>
     </row>
     <row r="72" ht="30" customHeight="1">
@@ -3456,8 +3495,10 @@
       <c r="G72" s="3" t="n">
         <v>145.6</v>
       </c>
-      <c r="J72" s="6" t="n">
-        <v>54.28</v>
+      <c r="J72" s="6" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
       </c>
     </row>
     <row r="73" ht="30" customHeight="1">
@@ -3508,8 +3549,10 @@
       <c r="G74" s="3" t="n">
         <v>763</v>
       </c>
-      <c r="J74" s="6" t="n">
-        <v>32.2</v>
+      <c r="J74" s="6" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
     </row>
     <row r="75" ht="30" customHeight="1">
@@ -3534,8 +3577,10 @@
       <c r="G75" s="3" t="n">
         <v>844</v>
       </c>
-      <c r="J75" s="6" t="n">
-        <v>5</v>
+      <c r="J75" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="76" ht="30" customHeight="1">
@@ -3560,8 +3605,10 @@
       <c r="G76" s="3" t="n">
         <v>376</v>
       </c>
-      <c r="J76" s="6" t="n">
-        <v>219</v>
+      <c r="J76" s="6" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
       </c>
     </row>
     <row r="77" ht="30" customHeight="1">
@@ -3586,8 +3633,10 @@
       <c r="G77" s="3" t="n">
         <v>122.16</v>
       </c>
-      <c r="J77" s="6" t="n">
-        <v>2</v>
+      <c r="J77" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="78" ht="30" customHeight="1">
@@ -3638,8 +3687,10 @@
       <c r="G79" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J79" s="6" t="n">
-        <v>5</v>
+      <c r="J79" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="80" ht="30" customHeight="1">
@@ -3664,8 +3715,10 @@
       <c r="G80" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J80" s="6" t="n">
-        <v>45.53</v>
+      <c r="J80" s="6" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
     </row>
     <row r="81" ht="30" customHeight="1">
@@ -3690,8 +3743,10 @@
       <c r="G81" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J81" s="6" t="n">
-        <v>66.06999999999999</v>
+      <c r="J81" s="6" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
       </c>
     </row>
     <row r="82" ht="30" customHeight="1">
@@ -3716,8 +3771,10 @@
       <c r="G82" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J82" s="6" t="n">
-        <v>34.6</v>
+      <c r="J82" s="6" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
     </row>
     <row r="83" ht="30" customHeight="1">
@@ -3742,8 +3799,10 @@
       <c r="G83" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J83" s="6" t="n">
-        <v>41.66</v>
+      <c r="J83" s="6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
     </row>
     <row r="84" ht="30" customHeight="1">
@@ -3768,8 +3827,10 @@
       <c r="G84" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J84" s="6" t="n">
-        <v>35.3</v>
+      <c r="J84" s="6" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
     </row>
     <row r="85" ht="30" customHeight="1">
@@ -3796,7 +3857,7 @@
       </c>
       <c r="J85" s="6" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -4076,8 +4137,10 @@
       <c r="G95" s="3" t="n">
         <v>108</v>
       </c>
-      <c r="J95" s="6" t="n">
-        <v>132</v>
+      <c r="J95" s="6" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
       </c>
     </row>
     <row r="96" ht="30" customHeight="1">
@@ -4102,8 +4165,10 @@
       <c r="G96" s="3" t="n">
         <v>96</v>
       </c>
-      <c r="J96" s="6" t="n">
-        <v>90</v>
+      <c r="J96" s="6" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
       </c>
     </row>
     <row r="97" ht="30" customHeight="1">
@@ -4130,7 +4195,7 @@
       </c>
       <c r="J97" s="6" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -4156,8 +4221,10 @@
       <c r="G98" s="3" t="n">
         <v>75</v>
       </c>
-      <c r="J98" s="6" t="n">
-        <v>71.02</v>
+      <c r="J98" s="6" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -4212,7 +4279,7 @@
       </c>
       <c r="J100" s="6" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>135</t>
         </is>
       </c>
     </row>
@@ -4240,7 +4307,7 @@
       </c>
       <c r="J101" s="6" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4335,7 @@
       </c>
       <c r="J102" s="6" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4363,7 @@
       </c>
       <c r="J103" s="6" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>360</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4419,7 @@
       </c>
       <c r="J105" s="6" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K105" s="6" t="inlineStr">
@@ -4383,8 +4450,10 @@
       <c r="G106" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="J106" s="6" t="n">
-        <v>10</v>
+      <c r="J106" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="K106" s="6" t="n">
         <v>9</v>
@@ -4414,7 +4483,7 @@
       </c>
       <c r="J107" s="6" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>440</t>
         </is>
       </c>
       <c r="K107" s="6" t="inlineStr">
@@ -4447,7 +4516,7 @@
       </c>
       <c r="J108" s="6" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>200</t>
         </is>
       </c>
       <c r="K108" s="6" t="inlineStr">
@@ -4481,8 +4550,10 @@
       <c r="H109" s="3" t="n">
         <v>109</v>
       </c>
-      <c r="K109" s="6" t="n">
-        <v>260</v>
+      <c r="K109" s="6" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
       </c>
       <c r="L109" s="6" t="inlineStr">
         <is>
@@ -4863,7 +4934,7 @@
       <c r="H122" s="3" t="n">
         <v>94</v>
       </c>
-      <c r="J122" s="6" t="inlineStr">
+      <c r="J122" s="11" t="inlineStr">
         <is>
           <t>542</t>
         </is>
@@ -4891,7 +4962,7 @@
       <c r="G123" s="3" t="n">
         <v>71</v>
       </c>
-      <c r="J123" s="6" t="inlineStr">
+      <c r="J123" s="11" t="inlineStr">
         <is>
           <t>392</t>
         </is>
@@ -4916,10 +4987,12 @@
       <c r="E124" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="G124" s="3" t="n">
+      <c r="G124" s="12" t="n">
         <v>105</v>
       </c>
-      <c r="J124" s="6" t="n">
+      <c r="H124" s="12" t="n"/>
+      <c r="I124" s="12" t="n"/>
+      <c r="J124" s="11" t="n">
         <v>66.5</v>
       </c>
     </row>
@@ -4942,10 +5015,12 @@
       <c r="E125" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G125" s="3" t="n">
+      <c r="G125" s="12" t="n">
         <v>102</v>
       </c>
-      <c r="J125" s="6" t="n">
+      <c r="H125" s="12" t="n"/>
+      <c r="I125" s="12" t="n"/>
+      <c r="J125" s="11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4968,9 +5043,11 @@
       <c r="E126" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="G126" s="3" t="n">
+      <c r="G126" s="12" t="n">
         <v>100</v>
       </c>
+      <c r="H126" s="12" t="n"/>
+      <c r="I126" s="12" t="n"/>
       <c r="J126" s="6" t="n">
         <v>33.6</v>
       </c>
@@ -4994,9 +5071,11 @@
       <c r="E127" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G127" s="3" t="n">
+      <c r="G127" s="12" t="n">
         <v>204</v>
       </c>
+      <c r="H127" s="12" t="n"/>
+      <c r="I127" s="12" t="n"/>
       <c r="J127" s="6" t="n">
         <v>4</v>
       </c>
@@ -5020,9 +5099,11 @@
       <c r="E128" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G128" s="3" t="n">
+      <c r="G128" s="12" t="n">
         <v>405</v>
       </c>
+      <c r="H128" s="12" t="n"/>
+      <c r="I128" s="12" t="n"/>
       <c r="J128" s="6" t="n">
         <v>3</v>
       </c>
@@ -5046,9 +5127,11 @@
       <c r="E129" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G129" s="3" t="n">
+      <c r="G129" s="12" t="n">
         <v>246</v>
       </c>
+      <c r="H129" s="12" t="n"/>
+      <c r="I129" s="12" t="n"/>
       <c r="J129" s="6" t="n">
         <v>2</v>
       </c>
@@ -5109,8 +5192,10 @@
       <c r="H131" s="3" t="n">
         <v>81</v>
       </c>
-      <c r="K131" s="6" t="n">
-        <v>428</v>
+      <c r="K131" s="6" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
       </c>
     </row>
     <row r="132" ht="30" customHeight="1">
@@ -5135,8 +5220,10 @@
       <c r="G132" s="3" t="n">
         <v>130.68</v>
       </c>
-      <c r="K132" s="6" t="n">
-        <v>877</v>
+      <c r="K132" s="6" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
       </c>
     </row>
     <row r="133" ht="30" customHeight="1">
@@ -5278,8 +5365,10 @@
       <c r="J137" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K137" s="6" t="n">
-        <v>5.6</v>
+      <c r="K137" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="138" ht="30" customHeight="1">
@@ -5306,7 +5395,7 @@
       </c>
       <c r="J138" s="6" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>135</t>
         </is>
       </c>
     </row>
@@ -5334,7 +5423,7 @@
       </c>
       <c r="J139" s="6" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>220</t>
         </is>
       </c>
     </row>
@@ -5362,7 +5451,7 @@
       </c>
       <c r="J140" s="6" t="inlineStr">
         <is>
-          <t>12.48</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -5390,7 +5479,7 @@
       </c>
       <c r="J141" s="6" t="inlineStr">
         <is>
-          <t>37.83</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -5418,7 +5507,7 @@
       </c>
       <c r="J142" s="6" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>105</t>
         </is>
       </c>
     </row>
@@ -5475,7 +5564,7 @@
       </c>
       <c r="J144" s="6" t="inlineStr">
         <is>
-          <t>61.70</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -5784,11 +5873,15 @@
       <c r="G155" s="3" t="n">
         <v>57</v>
       </c>
-      <c r="J155" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="K155" s="6" t="n">
-        <v>2</v>
+      <c r="J155" s="6" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="K155" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="156" ht="30" customHeight="1">
@@ -7166,7 +7259,7 @@
       </c>
       <c r="J203" s="6" t="inlineStr">
         <is>
-          <t>22.14</t>
+          <t>20</t>
         </is>
       </c>
     </row>
